--- a/GLOBAL/Impactos y Proyecciones Cambio Climático/Ecosistemas/2 Proyeccion Temperatura Oceánica Global.xlsx
+++ b/GLOBAL/Impactos y Proyecciones Cambio Climático/Ecosistemas/2 Proyeccion Temperatura Oceánica Global.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\GLOBAL\Impactos Cambio Climático\Ecosistemas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\GLOBAL\Impactos y Proyecciones Cambio Climático\Ecosistemas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEEA290D-0154-4A43-8478-D78BE9D3F24D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F95C185-FB34-470A-86A4-28E63C764CA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{564BE398-A495-4EAE-BF92-26AAF387297C}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>2031-2050</t>
   </si>
   <si>
-    <t>2018-2100</t>
-  </si>
-  <si>
     <t>Período</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>Aumento de Temperatura (°C)</t>
+  </si>
+  <si>
+    <t>2081-2100</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +444,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -460,10 +460,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -474,7 +474,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -482,10 +482,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -496,7 +496,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -504,10 +504,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
